--- a/员工信息采集表（模版）2017.xlsx
+++ b/员工信息采集表（模版）2017.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\article\design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
   </bookViews>
@@ -21,7 +26,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
   <si>
     <t>员工基础信息采集表</t>
   </si>
@@ -348,12 +353,361 @@
     <t xml:space="preserve">◇学士◇硕士◇博士◇其他：_____本科文凭_____             </t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>保利</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>430304199401032058</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>团员</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>415533780@qq.com</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘潭市岳塘区书院路101号</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>车到山前必有路，船到桥头自然直</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪晓云</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.9-2016.7</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南科技学院</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物工程</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>母亲</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄志云</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>退休</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪晓云</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>退休</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.3 — 2015.8</t>
+  </si>
+  <si>
+    <t>湘潭市亿度网络科技有限公司</t>
+  </si>
+  <si>
+    <t>私企</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术部</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页制作</t>
+  </si>
+  <si>
+    <r>
+      <t>1、 使用html标签，div+css技术还原设计图，处理浏览器兼容问题；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jQuery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及其组件实现网页轮播图，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">栏切换效果；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>html5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>css3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，实现页面动态效果；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">后期根据客户需求修改页面。
+</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习知识有限</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.9— 2017.1</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市甘果网络科技有限公司</t>
+  </si>
+  <si>
+    <t>互联网</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术部</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>单安成</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>张露</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、 所有页面使用流式布局+viewport实现移动端适配；
+2、 首页运用ajax与后台进行交互，处理json数据，获取图片以及文章标题信息；
+3、 各页面使用模版引擎加载绑定数据后的页面内容；
+4、 使用zepto及其组件实现轮播图、跳转置顶、固定下载栏效果；
+</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>回家</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、精通HTML布局，准确还原设计稿；
+2、阅览jQuery源码，了解其选择器实现原理，并以面向对象思想使用原生js进行仿写；
+3、熟练使用HTML5+CSS3进行移动端开发，并实现常见页面特效；
+4、熟悉amd、cmd规范，并能使用seajs、requirejs进行模块化开发；
+5、熟悉Ajax异步加载技术，并实现前后端的数据交互；
+6、熟练使用sass、less等预处理语言，git、gulp管理代码以及rubyGem、npm包管理器。
+</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -532,6 +886,32 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -876,7 +1256,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,8 +1386,11 @@
     <xf numFmtId="0" fontId="27" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,86 +1466,119 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="35" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="35" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="35" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="35" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="35" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="35" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - 着色 1" xfId="10"/>
     <cellStyle name="20% - 着色 2" xfId="11"/>
     <cellStyle name="20% - 着色 3" xfId="13"/>
@@ -1189,6 +1605,7 @@
     <cellStyle name="差 2" xfId="34"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="35"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8"/>
     <cellStyle name="好 2" xfId="25"/>
     <cellStyle name="汇总 2" xfId="36"/>
     <cellStyle name="计算 2" xfId="2"/>
@@ -1209,6 +1626,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1540,11 +1965,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1561,39 +1986,39 @@
   <sheetData>
     <row r="1" spans="1:10" ht="23.1" customHeight="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="8.25" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1614,14 +2039,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1642,122 +2067,158 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48">
+        <v>2</v>
+      </c>
+      <c r="D5" s="48"/>
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="21" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="34">
+        <v>185</v>
+      </c>
+      <c r="D6" s="34"/>
       <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="12">
+        <v>415533780</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31">
+        <v>18574376992</v>
+      </c>
+      <c r="D7" s="31"/>
       <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="F7" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="31"/>
       <c r="H7" s="13"/>
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="J7" s="22" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="34"/>
       <c r="E8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="G8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="12">
+        <v>13507324514</v>
+      </c>
       <c r="I8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="45"/>
       <c r="E9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="29"/>
+      <c r="F9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="39" t="s">
         <v>27</v>
       </c>
@@ -1770,14 +2231,14 @@
       <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1787,93 +2248,105 @@
       <c r="G12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="28"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="41" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="41"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="41"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="41"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="34">
+        <v>1.0551120160500099E+17</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8">
+        <v>1055142016001320</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="24" t="s">
         <v>45</v>
       </c>
@@ -1882,37 +2355,49 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="5" t="s">
         <v>49</v>
       </c>
@@ -1924,91 +2409,93 @@
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="47"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="47"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="47"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="29"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
       <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10">
@@ -2036,12 +2523,12 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
-      <c r="D30" s="28"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
@@ -2049,273 +2536,319 @@
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
     </row>
-    <row r="31" spans="1:10" ht="14.25">
-      <c r="A31" s="43" t="s">
+    <row r="31" spans="1:10" ht="17.25">
+      <c r="A31" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="19"/>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="52" t="s">
+        <v>99</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="6"/>
+      <c r="H31" s="52" t="s">
+        <v>100</v>
+      </c>
       <c r="I31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="6"/>
+      <c r="J31" s="53" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="14.25">
-      <c r="A32" s="37"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="28"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="H32" s="6">
+        <v>20</v>
+      </c>
       <c r="I32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" ht="14.25">
-      <c r="A33" s="37"/>
+      <c r="J32" s="53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="17.25">
+      <c r="A33" s="35"/>
       <c r="B33" s="19"/>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="54" t="s">
+        <v>102</v>
+      </c>
       <c r="F33" s="8"/>
       <c r="G33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="6"/>
+      <c r="H33" s="52" t="s">
+        <v>103</v>
+      </c>
       <c r="I33" s="5" t="s">
         <v>61</v>
       </c>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="14.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="59" t="s">
+        <v>114</v>
+      </c>
       <c r="F34" s="20"/>
       <c r="G34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="6"/>
+      <c r="H34" s="53" t="s">
+        <v>115</v>
+      </c>
       <c r="I34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="6"/>
+      <c r="J34" s="6">
+        <v>18670938365</v>
+      </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="37"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="37"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="37"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="28" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="17"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="56" t="s">
+        <v>105</v>
+      </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="37"/>
-      <c r="B39" s="46" t="s">
+    <row r="39" spans="1:10" ht="17.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="38"/>
       <c r="G39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="52" t="s">
+        <v>107</v>
+      </c>
       <c r="I39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="6"/>
+      <c r="J39" s="53" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="37"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="28" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="6">
+        <v>30</v>
+      </c>
       <c r="I40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J40" s="6"/>
+      <c r="J40" s="53" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="37"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="28" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="8"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="54" t="s">
+        <v>110</v>
+      </c>
       <c r="F41" s="8"/>
       <c r="G41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="6"/>
+      <c r="H41" s="53" t="s">
+        <v>111</v>
+      </c>
       <c r="I41" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J41" s="6">
-        <v>2</v>
-      </c>
+      <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="37"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="43" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="37"/>
       <c r="G42" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="I42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J42" s="6"/>
+      <c r="J42" s="6">
+        <v>15118003595</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="37"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="43" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="37"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="37"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="37"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="28" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="37"/>
-      <c r="B47" s="46" t="s">
+      <c r="A47" s="35"/>
+      <c r="B47" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="43"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="5" t="s">
@@ -2328,12 +2861,12 @@
       <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="37"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="28" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="28"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="5" t="s">
@@ -2346,12 +2879,12 @@
       <c r="J48" s="6"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="37"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="28" t="s">
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="28"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="5" t="s">
@@ -2364,12 +2897,12 @@
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="37"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="43" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="43"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
       <c r="G50" s="5" t="s">
@@ -2382,50 +2915,50 @@
       <c r="J50" s="6"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="37"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="43" t="s">
+      <c r="A51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="37"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="37"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="37"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="28" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="28"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -2435,6 +2968,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E35:J37"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:J46"/>
     <mergeCell ref="D21:J23"/>
     <mergeCell ref="A21:C23"/>
     <mergeCell ref="A24:C26"/>
@@ -2451,73 +3040,20 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E35:J37"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2532,7 +3068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
